--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,24 +43,21 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -70,15 +67,12 @@
     <t>panic</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,6 +82,9 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -100,9 +97,6 @@
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
@@ -112,79 +106,91 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>important</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>save</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
@@ -193,12 +199,6 @@
     <t>protect</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
@@ -208,19 +208,19 @@
     <t>share</t>
   </si>
   <si>
+    <t>increased</t>
+  </si>
+  <si>
     <t>essential</t>
   </si>
   <si>
-    <t>health</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
+    <t>new</t>
   </si>
   <si>
     <t>store</t>
@@ -239,9 +239,6 @@
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -599,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,16 +686,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7054794520547946</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C6">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.9545454545454546</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6551724137931034</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.9393939393939394</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.8888888888888888</v>
@@ -968,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5128205128205128</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8839285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.36</v>
+        <v>0.3624161073825503</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3422818791946309</v>
+        <v>0.3275193798449613</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="D11">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>98</v>
+        <v>347</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3391472868217054</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C12">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>341</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8214285714285714</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,16 +1186,16 @@
         <v>136</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.8203125</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2467532467532468</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K14">
-        <v>0.8103448275862069</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,371 +1265,323 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2111111111111111</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>336</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L15">
         <v>19</v>
       </c>
-      <c r="D15">
+      <c r="M15">
         <v>19</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>71</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>0.7872340425531915</v>
+      </c>
+      <c r="L16">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K15">
-        <v>0.8</v>
-      </c>
-      <c r="L15">
-        <v>96</v>
-      </c>
-      <c r="M15">
-        <v>96</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
+      <c r="K17">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L18">
+        <v>94</v>
+      </c>
+      <c r="M18">
+        <v>94</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L19">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>0.1706349206349206</v>
-      </c>
-      <c r="C16">
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20">
+        <v>0.7619047619047619</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <v>48</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L21">
+        <v>38</v>
+      </c>
+      <c r="M21">
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L22">
+        <v>78</v>
+      </c>
+      <c r="M22">
+        <v>78</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>0.7</v>
+      </c>
+      <c r="L23">
+        <v>112</v>
+      </c>
+      <c r="M23">
+        <v>112</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16">
-        <v>43</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>209</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="L16">
-        <v>113</v>
-      </c>
-      <c r="M16">
-        <v>113</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.1260053619302949</v>
-      </c>
-      <c r="C17">
-        <v>47</v>
-      </c>
-      <c r="D17">
-        <v>47</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>326</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K17">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>40</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="K24">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>25</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
-      <c r="J18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L18">
-        <v>21</v>
-      </c>
-      <c r="M18">
-        <v>21</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="J19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19">
-        <v>0.7735849056603774</v>
-      </c>
-      <c r="L19">
-        <v>82</v>
-      </c>
-      <c r="M19">
-        <v>82</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L21">
-        <v>48</v>
-      </c>
-      <c r="M21">
-        <v>48</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K22">
-        <v>0.7</v>
-      </c>
-      <c r="L22">
-        <v>112</v>
-      </c>
-      <c r="M22">
-        <v>112</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K23">
-        <v>0.6702127659574468</v>
-      </c>
-      <c r="L23">
-        <v>63</v>
-      </c>
-      <c r="M23">
-        <v>63</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K25">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L25">
+        <v>64</v>
+      </c>
+      <c r="M25">
+        <v>64</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L24">
-        <v>24</v>
-      </c>
-      <c r="M24">
-        <v>24</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <v>0.6344647519582245</v>
-      </c>
-      <c r="L25">
-        <v>243</v>
-      </c>
-      <c r="M25">
-        <v>243</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1647,148 +1596,148 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>0.625</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>30</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>0.6240208877284595</v>
+      </c>
+      <c r="L28">
+        <v>239</v>
+      </c>
+      <c r="M28">
+        <v>239</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K27">
+      <c r="K29">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L29">
+        <v>28</v>
+      </c>
+      <c r="M29">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30">
         <v>0.6176470588235294</v>
       </c>
-      <c r="L27">
+      <c r="L30">
         <v>21</v>
       </c>
-      <c r="M27">
+      <c r="M30">
         <v>21</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28">
-        <v>0.6046511627906976</v>
-      </c>
-      <c r="L28">
-        <v>26</v>
-      </c>
-      <c r="M28">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.6</v>
       </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
+      <c r="L31">
+        <v>24</v>
+      </c>
+      <c r="M31">
+        <v>24</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K30">
-        <v>0.6</v>
-      </c>
-      <c r="L30">
-        <v>24</v>
-      </c>
-      <c r="M30">
-        <v>24</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31">
-        <v>0.5705882352941176</v>
-      </c>
-      <c r="L31">
-        <v>194</v>
-      </c>
-      <c r="M31">
-        <v>194</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K32">
-        <v>0.5617977528089888</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L32">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1800,21 +1749,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5600000000000001</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>195</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1826,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>22</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.535593220338983</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L34">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="M34">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1852,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1878,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4937238493723849</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L36">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1904,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.4657534246575342</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1930,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.4523809523809524</v>
+        <v>0.5</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1956,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.4461538461538462</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L39">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1982,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.421875</v>
+        <v>0.4560669456066946</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2008,15 +1957,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.4102564102564102</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L41">
         <v>32</v>
@@ -2034,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.3285714285714286</v>
+        <v>0.4375</v>
       </c>
       <c r="L42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2060,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.1653543307086614</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2086,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.1450381679389313</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L44">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2112,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>112</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.1004784688995215</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="L45">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="M45">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2138,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>376</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.09302325581395349</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2164,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>195</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.09134615384615384</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2190,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.06599552572706935</v>
+        <v>0.1028708133971292</v>
       </c>
       <c r="L48">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="M48">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2216,73 +2165,73 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>835</v>
+        <v>375</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.04777777777777778</v>
+        <v>0.1023255813953488</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="N49">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>857</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.04006163328197226</v>
+        <v>0.05257270693512305</v>
       </c>
       <c r="L50">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M50">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>623</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.02883506343713956</v>
+        <v>0.03995560488346282</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2294,85 +2243,111 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>842</v>
+        <v>865</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.02244039270687237</v>
+        <v>0.03240740740740741</v>
       </c>
       <c r="L52">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O52">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2091</v>
+        <v>627</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.01547388781431335</v>
+        <v>0.02883506343713956</v>
       </c>
       <c r="L53">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>3054</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.006259780907668232</v>
+        <v>0.02616822429906542</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M54">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="N54">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0.23</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3175</v>
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55">
+        <v>0.01579626047711154</v>
+      </c>
+      <c r="L55">
+        <v>49</v>
+      </c>
+      <c r="M55">
+        <v>54</v>
+      </c>
+      <c r="N55">
+        <v>0.91</v>
+      </c>
+      <c r="O55">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3053</v>
       </c>
     </row>
   </sheetData>
